--- a/full_evaluation_results_s1.0.xlsx
+++ b/full_evaluation_results_s1.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,10 +517,10 @@
         <v>4.473532199859619</v>
       </c>
       <c r="G2" t="n">
-        <v>59.56564331054688</v>
+        <v>59.56562423706055</v>
       </c>
       <c r="H2" t="n">
-        <v>164.8533020019531</v>
+        <v>164.8483581542969</v>
       </c>
       <c r="I2" t="n">
         <v>1.463595986366272</v>
@@ -578,39 +578,959 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20_outdoor_walk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39.11725997924805</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.87547302246094</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70.56053924560547</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.796956777572632</v>
+      </c>
+      <c r="G4" t="n">
+        <v>68.68374633789062</v>
+      </c>
+      <c r="H4" t="n">
+        <v>209.6996154785156</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.625239372253418</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.021976470947266</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.638785086827506</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.130476523792711</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24_outdoor_long_walk</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43.01806259155273</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.48711776733398</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73.64038848876953</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.993957042694092</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96.32927703857422</v>
+      </c>
+      <c r="H5" t="n">
+        <v>296.3146667480469</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.363024711608887</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10.54676818847656</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.146558092913006</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.328399879522042</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27_indoor_walk_off_mvs</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.65267753601074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.22005462646484</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54.27660369873047</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.260169982910156</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80.47314453125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>275.4366149902344</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.029704332351685</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.55146598815918</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7893062114370805</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8619251753941057</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>28_outdoor_walk_lunges</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41.55994415283203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.24626922607422</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69.64527130126953</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.619699954986572</v>
+      </c>
+      <c r="G7" t="n">
+        <v>147.2835388183594</v>
+      </c>
+      <c r="H7" t="n">
+        <v>748.880615234375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.496078968048096</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22.12703704833984</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.202423252498684</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.194179889775355</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>29_outdoor_stairs_up</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.53458786010742</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.28411483764648</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50.52979278564453</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.979043245315552</v>
+      </c>
+      <c r="G8" t="n">
+        <v>196.1536102294922</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1011.827941894531</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.51039409637451</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31.42294883728027</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.281190600680846</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.674372602373738</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30_outdoor_stairs_down</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36.71791839599609</v>
+      </c>
+      <c r="D9" t="n">
+        <v>49.08229827880859</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54.65577697753906</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.539266586303711</v>
+      </c>
+      <c r="G9" t="n">
+        <v>150.1956176757812</v>
+      </c>
+      <c r="H9" t="n">
+        <v>396.3038024902344</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.452651023864746</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.90319633483887</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.097454258268168</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.370247607276749</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>35_indoor_walk</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.78839111328125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45.38986587524414</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50.67109680175781</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.431593179702759</v>
+      </c>
+      <c r="G10" t="n">
+        <v>97.97261810302734</v>
+      </c>
+      <c r="H10" t="n">
+        <v>271.9375305175781</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.589782953262329</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.677444458007812</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7660528676468703</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7614479712342376</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>36_outdoor_long_walk</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36.10221862792969</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.48115539550781</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.98352813720703</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.996474266052246</v>
+      </c>
+      <c r="G11" t="n">
+        <v>233.7323150634766</v>
+      </c>
+      <c r="H11" t="n">
+        <v>628.0665893554688</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.507472038269043</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.92434692382812</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.338220838443278</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.955909338830326</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>37_outdoor_run_circle</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37.00597381591797</v>
+      </c>
+      <c r="D12" t="n">
+        <v>48.87093734741211</v>
+      </c>
+      <c r="E12" t="n">
+        <v>57.36535263061523</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.822107315063477</v>
+      </c>
+      <c r="G12" t="n">
+        <v>65.13388061523438</v>
+      </c>
+      <c r="H12" t="n">
+        <v>153.0772247314453</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4819254279136658</v>
+      </c>
+      <c r="J12" t="n">
+        <v>13.58760452270508</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.07854345985623039</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1164748693354014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>40_indoor_walk_big_circle</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>36.35754776000977</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.44145965576172</v>
+      </c>
+      <c r="E13" t="n">
+        <v>83.44533538818359</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.404499053955078</v>
+      </c>
+      <c r="G13" t="n">
+        <v>151.9065856933594</v>
+      </c>
+      <c r="H13" t="n">
+        <v>458.8784790039062</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.575936555862427</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11.53858089447021</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5723010280463907</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.937063061532288</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>48_outdoor_walk_downhill</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>36.9577751159668</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.364990234375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>79.63278198242188</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.987997531890869</v>
+      </c>
+      <c r="G14" t="n">
+        <v>302.9744567871094</v>
+      </c>
+      <c r="H14" t="n">
+        <v>771.2894897460938</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.797893524169922</v>
+      </c>
+      <c r="J14" t="n">
+        <v>16.84098625183105</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.97494919657057</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.289371235980503</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>49_outdoor_big_stairs_down</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>51.33623504638672</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88.48582458496094</v>
+      </c>
+      <c r="E15" t="n">
+        <v>101.1795425415039</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.71514368057251</v>
+      </c>
+      <c r="G15" t="n">
+        <v>149.8555603027344</v>
+      </c>
+      <c r="H15" t="n">
+        <v>285.263916015625</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.356755256652832</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.786289215087891</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2093348215173136</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.03737121748157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>55_outdoor_walk</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42.43554306030273</v>
+      </c>
+      <c r="D16" t="n">
+        <v>72.22463989257812</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90.96864318847656</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.023480415344238</v>
+      </c>
+      <c r="G16" t="n">
+        <v>75.48699951171875</v>
+      </c>
+      <c r="H16" t="n">
+        <v>239.5101318359375</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.305710792541504</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.370334625244141</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6302772025502184</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8475301852201448</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>56_outdoor_stairs_up_down</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39.5032844543457</v>
+      </c>
+      <c r="D17" t="n">
+        <v>72.01612091064453</v>
+      </c>
+      <c r="E17" t="n">
+        <v>83.64481353759766</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.062256813049316</v>
+      </c>
+      <c r="G17" t="n">
+        <v>133.7837677001953</v>
+      </c>
+      <c r="H17" t="n">
+        <v>375.4980163574219</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.07244610786438</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13.47560119628906</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4832464818160446</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7702279171783946</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>57_outdoor_rock_chair</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>41.72327041625977</v>
+      </c>
+      <c r="D18" t="n">
+        <v>69.35671997070312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>81.72373199462891</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.666821479797363</v>
+      </c>
+      <c r="G18" t="n">
+        <v>111.4621963500977</v>
+      </c>
+      <c r="H18" t="n">
+        <v>239.3534240722656</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.626081824302673</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10.0245418548584</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2674947771974942</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5612240171114848</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>58_outdoor_parcours</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39.15556335449219</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66.32810211181641</v>
+      </c>
+      <c r="E19" t="n">
+        <v>79.55320739746094</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.309549808502197</v>
+      </c>
+      <c r="G19" t="n">
+        <v>176.8385925292969</v>
+      </c>
+      <c r="H19" t="n">
+        <v>551.8920288085938</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.476409912109375</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15.38296794891357</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.05796257626427</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.107067469067945</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>61_outdoor_sit_lie_walk</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>44.74185943603516</v>
+      </c>
+      <c r="D20" t="n">
+        <v>76.30595397949219</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.81327056884766</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.023063182830811</v>
+      </c>
+      <c r="G20" t="n">
+        <v>159.0280303955078</v>
+      </c>
+      <c r="H20" t="n">
+        <v>398.4216613769531</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.339072227478027</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10.86408996582031</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9549704938213091</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.986441121285247</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>64_outdoor_skateboard</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>46.65358352661133</v>
+      </c>
+      <c r="D21" t="n">
+        <v>77.70427703857422</v>
+      </c>
+      <c r="E21" t="n">
+        <v>88.69877624511719</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.481054306030273</v>
+      </c>
+      <c r="G21" t="n">
+        <v>104.2088623046875</v>
+      </c>
+      <c r="H21" t="n">
+        <v>322.9708557128906</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.517764687538147</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8.479915618896484</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4886878092413954</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8184771003386079</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>65_outdoor_walk_straight</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.88931655883789</v>
+      </c>
+      <c r="D22" t="n">
+        <v>73.09838104248047</v>
+      </c>
+      <c r="E22" t="n">
+        <v>80.00541687011719</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.272486209869385</v>
+      </c>
+      <c r="G22" t="n">
+        <v>302.6008911132812</v>
+      </c>
+      <c r="H22" t="n">
+        <v>873.2232055664062</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10.74048805236816</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15.8927116394043</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.912123118837333</v>
+      </c>
+      <c r="L22" t="n">
+        <v>7.576192318030412</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>77_outdoor_stairs_up</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33.87751007080078</v>
+      </c>
+      <c r="D23" t="n">
+        <v>61.79091262817383</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70.08090209960938</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.637044429779053</v>
+      </c>
+      <c r="G23" t="n">
+        <v>83.91310882568359</v>
+      </c>
+      <c r="H23" t="n">
+        <v>200.92138671875</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.233413696289062</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.086774826049805</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1772030503372498</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2151990588817293</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>78_outdoor_stairs_up_down</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37.14675140380859</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64.49644470214844</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75.74825286865234</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5.207028388977051</v>
+      </c>
+      <c r="G24" t="n">
+        <v>115.7272033691406</v>
+      </c>
+      <c r="H24" t="n">
+        <v>326.2965087890625</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.2666255235672</v>
+      </c>
+      <c r="J24" t="n">
+        <v>13.70786666870117</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2712173280396838</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3537802603583006</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>79_outdoor_walk_rectangle</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30.42371559143066</v>
+      </c>
+      <c r="D25" t="n">
+        <v>56.07848739624023</v>
+      </c>
+      <c r="E25" t="n">
+        <v>65.719482421875</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.915863513946533</v>
+      </c>
+      <c r="G25" t="n">
+        <v>50.04081726074219</v>
+      </c>
+      <c r="H25" t="n">
+        <v>188.8284149169922</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8170096874237061</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10.37972545623779</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3227047162238519</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6888003602467576</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>80_outdoor_walk_big_circle</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.44199752807617</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64.22435760498047</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75.05961608886719</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.731936931610107</v>
+      </c>
+      <c r="G26" t="n">
+        <v>99.33134460449219</v>
+      </c>
+      <c r="H26" t="n">
+        <v>396.5665588378906</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.169034600257874</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.33933544158936</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.108626538965465</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.230428321389013</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>35.67159271240234</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48.63021469116211</v>
-      </c>
-      <c r="E4" t="n">
-        <v>56.51054763793945</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.821800470352173</v>
-      </c>
-      <c r="G4" t="n">
-        <v>68.20796203613281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>166.3073425292969</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.729800462722778</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.235851764678955</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.4539701748471516</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8822965598644017</v>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>38.1435546875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>63.0703125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>73.24900054931641</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.664289474487305</v>
+      </c>
+      <c r="G27" t="n">
+        <v>133.2182006835938</v>
+      </c>
+      <c r="H27" t="n">
+        <v>402.9666748046875</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.07021427154541</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.38776874542236</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.067102966307782</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.143088024854634</v>
       </c>
     </row>
   </sheetData>

--- a/full_evaluation_results_s1.0.xlsx
+++ b/full_evaluation_results_s1.0.xlsx
@@ -517,22 +517,22 @@
         <v>4.473532199859619</v>
       </c>
       <c r="G2" t="n">
-        <v>59.56562423706055</v>
+        <v>108.6829299926758</v>
       </c>
       <c r="H2" t="n">
-        <v>164.8483581542969</v>
+        <v>317.6914978027344</v>
       </c>
       <c r="I2" t="n">
-        <v>1.463595986366272</v>
+        <v>3.086787939071655</v>
       </c>
       <c r="J2" t="n">
-        <v>8.259799957275391</v>
+        <v>10.21835327148438</v>
       </c>
       <c r="K2" t="n">
-        <v>0.764115311665241</v>
+        <v>0.430992442154261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8938075178093381</v>
+        <v>1.990642279791056</v>
       </c>
     </row>
     <row r="3">
@@ -557,22 +557,22 @@
         <v>2.812749147415161</v>
       </c>
       <c r="G3" t="n">
-        <v>81.57760620117188</v>
+        <v>99.13406372070312</v>
       </c>
       <c r="H3" t="n">
-        <v>168.5567169189453</v>
+        <v>216.0992126464844</v>
       </c>
       <c r="I3" t="n">
-        <v>4.688079833984375</v>
+        <v>6.81588077545166</v>
       </c>
       <c r="J3" t="n">
-        <v>5.651810169219971</v>
+        <v>6.334219932556152</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1438250380290623</v>
+        <v>0.08980409620695536</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8707856019194653</v>
+        <v>1.259197856155351</v>
       </c>
     </row>
     <row r="4">
@@ -597,22 +597,22 @@
         <v>3.796956777572632</v>
       </c>
       <c r="G4" t="n">
-        <v>68.68374633789062</v>
+        <v>165.6681060791016</v>
       </c>
       <c r="H4" t="n">
-        <v>209.6996154785156</v>
+        <v>740.0010986328125</v>
       </c>
       <c r="I4" t="n">
-        <v>3.625239372253418</v>
+        <v>7.536784648895264</v>
       </c>
       <c r="J4" t="n">
-        <v>9.021976470947266</v>
+        <v>16.80570793151855</v>
       </c>
       <c r="K4" t="n">
-        <v>2.638785086827506</v>
+        <v>3.225817004402545</v>
       </c>
       <c r="L4" t="n">
-        <v>3.130476523792711</v>
+        <v>6.791158183206554</v>
       </c>
     </row>
     <row r="5">
@@ -677,22 +677,22 @@
         <v>3.260169982910156</v>
       </c>
       <c r="G6" t="n">
-        <v>80.47314453125</v>
+        <v>73.77909851074219</v>
       </c>
       <c r="H6" t="n">
-        <v>275.4366149902344</v>
+        <v>273.7779846191406</v>
       </c>
       <c r="I6" t="n">
-        <v>2.029704332351685</v>
+        <v>2.889680862426758</v>
       </c>
       <c r="J6" t="n">
-        <v>9.55146598815918</v>
+        <v>9.387054443359375</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7893062114370805</v>
+        <v>0.4648379908907747</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8619251753941057</v>
+        <v>1.229267315286151</v>
       </c>
     </row>
     <row r="7">
@@ -757,22 +757,22 @@
         <v>3.979043245315552</v>
       </c>
       <c r="G8" t="n">
-        <v>196.1536102294922</v>
+        <v>116.0167922973633</v>
       </c>
       <c r="H8" t="n">
-        <v>1011.827941894531</v>
+        <v>435.6024169921875</v>
       </c>
       <c r="I8" t="n">
-        <v>12.51039409637451</v>
+        <v>5.029820442199707</v>
       </c>
       <c r="J8" t="n">
-        <v>31.42294883728027</v>
+        <v>20.85674095153809</v>
       </c>
       <c r="K8" t="n">
-        <v>1.281190600680846</v>
+        <v>0.5089652009826994</v>
       </c>
       <c r="L8" t="n">
-        <v>4.674372602373738</v>
+        <v>1.983294202847733</v>
       </c>
     </row>
     <row r="9">
@@ -797,22 +797,22 @@
         <v>4.539266586303711</v>
       </c>
       <c r="G9" t="n">
-        <v>150.1956176757812</v>
+        <v>166.8375091552734</v>
       </c>
       <c r="H9" t="n">
-        <v>396.3038024902344</v>
+        <v>443.2389831542969</v>
       </c>
       <c r="I9" t="n">
-        <v>4.452651023864746</v>
+        <v>4.949410438537598</v>
       </c>
       <c r="J9" t="n">
-        <v>15.90319633483887</v>
+        <v>16.43637275695801</v>
       </c>
       <c r="K9" t="n">
-        <v>1.097454258268168</v>
+        <v>1.317884681673736</v>
       </c>
       <c r="L9" t="n">
-        <v>1.370247607276749</v>
+        <v>1.501406740404275</v>
       </c>
     </row>
     <row r="10">
@@ -837,22 +837,22 @@
         <v>3.431593179702759</v>
       </c>
       <c r="G10" t="n">
-        <v>97.97261810302734</v>
+        <v>47.57673645019531</v>
       </c>
       <c r="H10" t="n">
-        <v>271.9375305175781</v>
+        <v>113.9475021362305</v>
       </c>
       <c r="I10" t="n">
-        <v>2.589782953262329</v>
+        <v>0.3832592964172363</v>
       </c>
       <c r="J10" t="n">
-        <v>9.677444458007812</v>
+        <v>8.047077178955078</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7660528676468703</v>
+        <v>0.08098722138961886</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7614479712342376</v>
+        <v>0.1102630363814392</v>
       </c>
     </row>
     <row r="11">
@@ -917,22 +917,22 @@
         <v>5.822107315063477</v>
       </c>
       <c r="G12" t="n">
-        <v>65.13388061523438</v>
+        <v>57.89563751220703</v>
       </c>
       <c r="H12" t="n">
-        <v>153.0772247314453</v>
+        <v>155.9514923095703</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4819254279136658</v>
+        <v>0.2485483884811401</v>
       </c>
       <c r="J12" t="n">
-        <v>13.58760452270508</v>
+        <v>13.51173210144043</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07854345985623039</v>
+        <v>0.03533377400280525</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1164748693354014</v>
+        <v>0.03621065308990438</v>
       </c>
     </row>
     <row r="13">
@@ -997,22 +997,22 @@
         <v>4.987997531890869</v>
       </c>
       <c r="G14" t="n">
-        <v>302.9744567871094</v>
+        <v>249.5182952880859</v>
       </c>
       <c r="H14" t="n">
-        <v>771.2894897460938</v>
+        <v>668.255615234375</v>
       </c>
       <c r="I14" t="n">
-        <v>8.797893524169922</v>
+        <v>7.366587162017822</v>
       </c>
       <c r="J14" t="n">
-        <v>16.84098625183105</v>
+        <v>14.78339099884033</v>
       </c>
       <c r="K14" t="n">
-        <v>4.97494919657057</v>
+        <v>3.614055647838236</v>
       </c>
       <c r="L14" t="n">
-        <v>5.289371235980503</v>
+        <v>4.433842816713573</v>
       </c>
     </row>
     <row r="15">
@@ -1037,22 +1037,22 @@
         <v>3.71514368057251</v>
       </c>
       <c r="G15" t="n">
-        <v>149.8555603027344</v>
+        <v>124.0782470703125</v>
       </c>
       <c r="H15" t="n">
-        <v>285.263916015625</v>
+        <v>227.3143310546875</v>
       </c>
       <c r="I15" t="n">
-        <v>6.356755256652832</v>
+        <v>4.94888162612915</v>
       </c>
       <c r="J15" t="n">
-        <v>8.786289215087891</v>
+        <v>7.703754425048828</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2093348215173136</v>
+        <v>0.1348285218486699</v>
       </c>
       <c r="L15" t="n">
-        <v>1.03737121748157</v>
+        <v>0.7558165751667402</v>
       </c>
     </row>
     <row r="16">
@@ -1077,22 +1077,22 @@
         <v>5.023480415344238</v>
       </c>
       <c r="G16" t="n">
-        <v>75.48699951171875</v>
+        <v>79.10270690917969</v>
       </c>
       <c r="H16" t="n">
-        <v>239.5101318359375</v>
+        <v>245.5284118652344</v>
       </c>
       <c r="I16" t="n">
-        <v>1.305710792541504</v>
+        <v>0.9533370137214661</v>
       </c>
       <c r="J16" t="n">
-        <v>8.370334625244141</v>
+        <v>8.215726852416992</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6302772025502184</v>
+        <v>0.5461294901259565</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8475301852201448</v>
+        <v>0.610382169987709</v>
       </c>
     </row>
     <row r="17">
@@ -1117,22 +1117,22 @@
         <v>7.062256813049316</v>
       </c>
       <c r="G17" t="n">
-        <v>133.7837677001953</v>
+        <v>115.2895736694336</v>
       </c>
       <c r="H17" t="n">
-        <v>375.4980163574219</v>
+        <v>317.4119262695312</v>
       </c>
       <c r="I17" t="n">
-        <v>2.07244610786438</v>
+        <v>1.091237187385559</v>
       </c>
       <c r="J17" t="n">
-        <v>13.47560119628906</v>
+        <v>13.26593208312988</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4832464818160446</v>
+        <v>0.3075736701257018</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7702279171783946</v>
+        <v>0.388819887458323</v>
       </c>
     </row>
     <row r="18">
@@ -1157,22 +1157,22 @@
         <v>4.666821479797363</v>
       </c>
       <c r="G18" t="n">
-        <v>111.4621963500977</v>
+        <v>90.23635864257812</v>
       </c>
       <c r="H18" t="n">
-        <v>239.3534240722656</v>
+        <v>187.8910522460938</v>
       </c>
       <c r="I18" t="n">
-        <v>1.626081824302673</v>
+        <v>0.8822309970855713</v>
       </c>
       <c r="J18" t="n">
-        <v>10.0245418548584</v>
+        <v>9.339920043945312</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2674947771974942</v>
+        <v>0.1272548079570197</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5612240171114848</v>
+        <v>0.2722432278784981</v>
       </c>
     </row>
     <row r="19">
@@ -1197,22 +1197,22 @@
         <v>7.309549808502197</v>
       </c>
       <c r="G19" t="n">
-        <v>176.8385925292969</v>
+        <v>125.7876358032227</v>
       </c>
       <c r="H19" t="n">
-        <v>551.8920288085938</v>
+        <v>521.701171875</v>
       </c>
       <c r="I19" t="n">
-        <v>4.476409912109375</v>
+        <v>5.127596855163574</v>
       </c>
       <c r="J19" t="n">
-        <v>15.38296794891357</v>
+        <v>17.47074127197266</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05796257626427</v>
+        <v>0.6956230466389091</v>
       </c>
       <c r="L19" t="n">
-        <v>2.107067469067945</v>
+        <v>2.540412812436776</v>
       </c>
     </row>
     <row r="20">
@@ -1277,22 +1277,22 @@
         <v>5.481054306030273</v>
       </c>
       <c r="G21" t="n">
-        <v>104.2088623046875</v>
+        <v>137.5004425048828</v>
       </c>
       <c r="H21" t="n">
-        <v>322.9708557128906</v>
+        <v>408.0429382324219</v>
       </c>
       <c r="I21" t="n">
-        <v>1.517764687538147</v>
+        <v>2.171093463897705</v>
       </c>
       <c r="J21" t="n">
-        <v>8.479915618896484</v>
+        <v>9.779004096984863</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4886878092413954</v>
+        <v>0.8812014897652418</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8184771003386079</v>
+        <v>1.230758937724136</v>
       </c>
     </row>
     <row r="22">
@@ -1357,22 +1357,22 @@
         <v>4.637044429779053</v>
       </c>
       <c r="G23" t="n">
-        <v>83.91310882568359</v>
+        <v>77.65883636474609</v>
       </c>
       <c r="H23" t="n">
-        <v>200.92138671875</v>
+        <v>184.5671997070312</v>
       </c>
       <c r="I23" t="n">
-        <v>1.233413696289062</v>
+        <v>1.013454437255859</v>
       </c>
       <c r="J23" t="n">
-        <v>9.086774826049805</v>
+        <v>9.039108276367188</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1772030503372498</v>
+        <v>0.1385385312536891</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2151990588817293</v>
+        <v>0.166911543036723</v>
       </c>
     </row>
     <row r="24">
@@ -1397,22 +1397,22 @@
         <v>5.207028388977051</v>
       </c>
       <c r="G24" t="n">
-        <v>115.7272033691406</v>
+        <v>88.29719543457031</v>
       </c>
       <c r="H24" t="n">
-        <v>326.2965087890625</v>
+        <v>237.0995788574219</v>
       </c>
       <c r="I24" t="n">
-        <v>1.2666255235672</v>
+        <v>0.79860520362854</v>
       </c>
       <c r="J24" t="n">
-        <v>13.70786666870117</v>
+        <v>13.37563800811768</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2712173280396838</v>
+        <v>0.1596388178446454</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3537802603583006</v>
+        <v>0.1775355738014216</v>
       </c>
     </row>
     <row r="25">
@@ -1437,22 +1437,22 @@
         <v>4.915863513946533</v>
       </c>
       <c r="G25" t="n">
-        <v>50.04081726074219</v>
+        <v>56.22836303710938</v>
       </c>
       <c r="H25" t="n">
-        <v>188.8284149169922</v>
+        <v>210.8364410400391</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8170096874237061</v>
+        <v>0.709577739238739</v>
       </c>
       <c r="J25" t="n">
-        <v>10.37972545623779</v>
+        <v>10.7540111541748</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3227047162238519</v>
+        <v>0.2740642153934587</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6888003602467576</v>
+        <v>0.6239872640883656</v>
       </c>
     </row>
     <row r="26">
@@ -1515,22 +1515,22 @@
         <v>4.664289474487305</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2182006835938</v>
+        <v>133.3283081054688</v>
       </c>
       <c r="H27" t="n">
-        <v>402.9666748046875</v>
+        <v>416.593017578125</v>
       </c>
       <c r="I27" t="n">
-        <v>4.07021427154541</v>
+        <v>4.061065196990967</v>
       </c>
       <c r="J27" t="n">
-        <v>12.38776874542236</v>
+        <v>12.60750770568848</v>
       </c>
       <c r="K27" t="n">
-        <v>1.067102966307782</v>
+        <v>0.8907501605608155</v>
       </c>
       <c r="L27" t="n">
-        <v>2.143088024854634</v>
+        <v>2.172430600232776</v>
       </c>
     </row>
   </sheetData>
